--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf18-Fgfr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf18-Fgfr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3156923333333333</v>
+        <v>0.5972743333333334</v>
       </c>
       <c r="H2">
-        <v>0.9470769999999999</v>
+        <v>1.791823</v>
       </c>
       <c r="I2">
-        <v>0.05856969468189593</v>
+        <v>0.0994998030631086</v>
       </c>
       <c r="J2">
-        <v>0.05856969468189595</v>
+        <v>0.09949980306310859</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8372556666666666</v>
+        <v>0.903185</v>
       </c>
       <c r="N2">
-        <v>2.511767</v>
+        <v>2.709555</v>
       </c>
       <c r="O2">
-        <v>0.04323017762831462</v>
+        <v>0.03154869388788047</v>
       </c>
       <c r="P2">
-        <v>0.04323017762831462</v>
+        <v>0.03154869388788046</v>
       </c>
       <c r="Q2">
-        <v>0.2643151950065555</v>
+        <v>0.5394492187516667</v>
       </c>
       <c r="R2">
-        <v>2.378836755059</v>
+        <v>4.855042968765</v>
       </c>
       <c r="S2">
-        <v>0.002531978304734515</v>
+        <v>0.003139088828742405</v>
       </c>
       <c r="T2">
-        <v>0.002531978304734516</v>
+        <v>0.003139088828742403</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3156923333333333</v>
+        <v>0.5972743333333334</v>
       </c>
       <c r="H3">
-        <v>0.9470769999999999</v>
+        <v>1.791823</v>
       </c>
       <c r="I3">
-        <v>0.05856969468189593</v>
+        <v>0.0994998030631086</v>
       </c>
       <c r="J3">
-        <v>0.05856969468189595</v>
+        <v>0.09949980306310859</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +626,22 @@
         <v>0.331116</v>
       </c>
       <c r="O3">
-        <v>0.00569885801333365</v>
+        <v>0.003855347953955327</v>
       </c>
       <c r="P3">
-        <v>0.00569885801333365</v>
+        <v>0.003855347953955326</v>
       </c>
       <c r="Q3">
-        <v>0.03484359421466666</v>
+        <v>0.06592236271866665</v>
       </c>
       <c r="R3">
-        <v>0.313592347932</v>
+        <v>0.5933012644679999</v>
       </c>
       <c r="S3">
-        <v>0.0003337803738764279</v>
+        <v>0.0003836063621583137</v>
       </c>
       <c r="T3">
-        <v>0.000333780373876428</v>
+        <v>0.0003836063621583136</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3156923333333333</v>
+        <v>0.5972743333333334</v>
       </c>
       <c r="H4">
-        <v>0.9470769999999999</v>
+        <v>1.791823</v>
       </c>
       <c r="I4">
-        <v>0.05856969468189593</v>
+        <v>0.0994998030631086</v>
       </c>
       <c r="J4">
-        <v>0.05856969468189595</v>
+        <v>0.09949980306310859</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>18.40564566666667</v>
+        <v>0.03076233333333333</v>
       </c>
       <c r="N4">
-        <v>55.216937</v>
+        <v>0.09228699999999999</v>
       </c>
       <c r="O4">
-        <v>0.9503421275147966</v>
+        <v>0.001074543352259254</v>
       </c>
       <c r="P4">
-        <v>0.9503421275147965</v>
+        <v>0.001074543352259254</v>
       </c>
       <c r="Q4">
-        <v>5.810521227016555</v>
+        <v>0.01837355213344444</v>
       </c>
       <c r="R4">
-        <v>52.294691043149</v>
+        <v>0.165361969201</v>
       </c>
       <c r="S4">
-        <v>0.05566124825188505</v>
+        <v>0.0001069168519325683</v>
       </c>
       <c r="T4">
-        <v>0.05566124825188506</v>
+        <v>0.0001069168519325683</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,76 +711,76 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3156923333333333</v>
+        <v>0.5972743333333334</v>
       </c>
       <c r="H5">
-        <v>0.9470769999999999</v>
+        <v>1.791823</v>
       </c>
       <c r="I5">
-        <v>0.05856969468189593</v>
+        <v>0.0994998030631086</v>
       </c>
       <c r="J5">
-        <v>0.05856969468189595</v>
+        <v>0.09949980306310859</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.01411566666666667</v>
+        <v>27.52907633333334</v>
       </c>
       <c r="N5">
-        <v>0.042347</v>
+        <v>82.58722900000001</v>
       </c>
       <c r="O5">
-        <v>0.0007288368435552499</v>
+        <v>0.9616041035407232</v>
       </c>
       <c r="P5">
-        <v>0.0007288368435552499</v>
+        <v>0.9616041035407231</v>
       </c>
       <c r="Q5">
-        <v>0.004456207746555555</v>
+        <v>16.44241071427411</v>
       </c>
       <c r="R5">
-        <v>0.040105869719</v>
+        <v>147.981696428467</v>
       </c>
       <c r="S5">
-        <v>4.268775139994774E-05</v>
+        <v>0.09567941892697905</v>
       </c>
       <c r="T5">
-        <v>4.268775139994775E-05</v>
+        <v>0.09567941892697902</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -785,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.044312666666666</v>
+        <v>0.5972743333333334</v>
       </c>
       <c r="H6">
-        <v>12.132938</v>
+        <v>1.791823</v>
       </c>
       <c r="I6">
-        <v>0.7503323111577761</v>
+        <v>0.0994998030631086</v>
       </c>
       <c r="J6">
-        <v>0.7503323111577762</v>
+        <v>0.09949980306310859</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.8372556666666666</v>
+        <v>0.05488933333333334</v>
       </c>
       <c r="N6">
-        <v>2.511767</v>
+        <v>0.164668</v>
       </c>
       <c r="O6">
-        <v>0.04323017762831462</v>
+        <v>0.001917311265181737</v>
       </c>
       <c r="P6">
-        <v>0.04323017762831462</v>
+        <v>0.001917311265181736</v>
       </c>
       <c r="Q6">
-        <v>3.386123697938444</v>
+        <v>0.03278398997377778</v>
       </c>
       <c r="R6">
-        <v>30.475113281446</v>
+        <v>0.295055909764</v>
       </c>
       <c r="S6">
-        <v>0.03243699909161449</v>
+        <v>0.0001907720932962624</v>
       </c>
       <c r="T6">
-        <v>0.0324369990916145</v>
+        <v>0.0001907720932962623</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,40 +856,40 @@
         <v>12.132938</v>
       </c>
       <c r="I7">
-        <v>0.7503323111577761</v>
+        <v>0.6737411795567456</v>
       </c>
       <c r="J7">
-        <v>0.7503323111577762</v>
+        <v>0.6737411795567455</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.110372</v>
+        <v>0.903185</v>
       </c>
       <c r="N7">
-        <v>0.331116</v>
+        <v>2.709555</v>
       </c>
       <c r="O7">
-        <v>0.00569885801333365</v>
+        <v>0.03154869388788047</v>
       </c>
       <c r="P7">
-        <v>0.00569885801333365</v>
+        <v>0.03154869388788046</v>
       </c>
       <c r="Q7">
-        <v>0.4463788776453332</v>
+        <v>3.652762535843333</v>
       </c>
       <c r="R7">
-        <v>4.017409898807999</v>
+        <v>32.87486282259</v>
       </c>
       <c r="S7">
-        <v>0.00427603730410465</v>
+        <v>0.02125565423349528</v>
       </c>
       <c r="T7">
-        <v>0.004276037304104651</v>
+        <v>0.02125565423349527</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,13 +897,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,40 +918,40 @@
         <v>12.132938</v>
       </c>
       <c r="I8">
-        <v>0.7503323111577761</v>
+        <v>0.6737411795567456</v>
       </c>
       <c r="J8">
-        <v>0.7503323111577762</v>
+        <v>0.6737411795567455</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>18.40564566666667</v>
+        <v>0.110372</v>
       </c>
       <c r="N8">
-        <v>55.216937</v>
+        <v>0.331116</v>
       </c>
       <c r="O8">
-        <v>0.9503421275147966</v>
+        <v>0.003855347953955327</v>
       </c>
       <c r="P8">
-        <v>0.9503421275147965</v>
+        <v>0.003855347953955326</v>
       </c>
       <c r="Q8">
-        <v>74.43818590787845</v>
+        <v>0.4463788776453332</v>
       </c>
       <c r="R8">
-        <v>669.943673170906</v>
+        <v>4.017409898807999</v>
       </c>
       <c r="S8">
-        <v>0.7130724049287753</v>
+        <v>0.002597506678099548</v>
       </c>
       <c r="T8">
-        <v>0.7130724049287753</v>
+        <v>0.002597506678099547</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,10 +980,10 @@
         <v>12.132938</v>
       </c>
       <c r="I9">
-        <v>0.7503323111577761</v>
+        <v>0.6737411795567456</v>
       </c>
       <c r="J9">
-        <v>0.7503323111577762</v>
+        <v>0.6737411795567455</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,42 +992,42 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.01411566666666667</v>
+        <v>0.03076233333333333</v>
       </c>
       <c r="N9">
-        <v>0.042347</v>
+        <v>0.09228699999999999</v>
       </c>
       <c r="O9">
-        <v>0.0007288368435552499</v>
+        <v>0.001074543352259254</v>
       </c>
       <c r="P9">
-        <v>0.0007288368435552499</v>
+        <v>0.001074543352259254</v>
       </c>
       <c r="Q9">
-        <v>0.05708816949844444</v>
+        <v>0.1244124943562222</v>
       </c>
       <c r="R9">
-        <v>0.513793525486</v>
+        <v>1.119712449206</v>
       </c>
       <c r="S9">
-        <v>0.0005468698332817491</v>
+        <v>0.0007239641056360097</v>
       </c>
       <c r="T9">
-        <v>0.0005468698332817492</v>
+        <v>0.0007239641056360095</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.9592346666666666</v>
+        <v>4.044312666666666</v>
       </c>
       <c r="H10">
-        <v>2.877704</v>
+        <v>12.132938</v>
       </c>
       <c r="I10">
-        <v>0.1779646688335486</v>
+        <v>0.6737411795567456</v>
       </c>
       <c r="J10">
-        <v>0.1779646688335486</v>
+        <v>0.6737411795567455</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,43 +1054,43 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.8372556666666666</v>
+        <v>27.52907633333334</v>
       </c>
       <c r="N10">
-        <v>2.511767</v>
+        <v>82.58722900000001</v>
       </c>
       <c r="O10">
-        <v>0.04323017762831462</v>
+        <v>0.9616041035407232</v>
       </c>
       <c r="P10">
-        <v>0.04323017762831462</v>
+        <v>0.9616041035407231</v>
       </c>
       <c r="Q10">
-        <v>0.8031246603297777</v>
+        <v>111.3361921165336</v>
       </c>
       <c r="R10">
-        <v>7.228121942967999</v>
+        <v>1002.025729048802</v>
       </c>
       <c r="S10">
-        <v>0.007693444245238491</v>
+        <v>0.6478722829861339</v>
       </c>
       <c r="T10">
-        <v>0.007693444245238491</v>
+        <v>0.6478722829861336</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1095,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.9592346666666666</v>
+        <v>4.044312666666666</v>
       </c>
       <c r="H11">
-        <v>2.877704</v>
+        <v>12.132938</v>
       </c>
       <c r="I11">
-        <v>0.1779646688335486</v>
+        <v>0.6737411795567456</v>
       </c>
       <c r="J11">
-        <v>0.1779646688335486</v>
+        <v>0.6737411795567455</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1113,28 +1116,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.110372</v>
+        <v>0.05488933333333334</v>
       </c>
       <c r="N11">
-        <v>0.331116</v>
+        <v>0.164668</v>
       </c>
       <c r="O11">
-        <v>0.00569885801333365</v>
+        <v>0.001917311265181737</v>
       </c>
       <c r="P11">
-        <v>0.00569885801333365</v>
+        <v>0.001917311265181736</v>
       </c>
       <c r="Q11">
-        <v>0.1058726486293333</v>
+        <v>0.2219896260648889</v>
       </c>
       <c r="R11">
-        <v>0.9528538376639998</v>
+        <v>1.997906634584</v>
       </c>
       <c r="S11">
-        <v>0.001014195379072338</v>
+        <v>0.00129177155338098</v>
       </c>
       <c r="T11">
-        <v>0.001014195379072338</v>
+        <v>0.001291771553380979</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,13 +1145,13 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.9592346666666666</v>
+        <v>0.748897</v>
       </c>
       <c r="H12">
-        <v>2.877704</v>
+        <v>2.246691</v>
       </c>
       <c r="I12">
-        <v>0.1779646688335486</v>
+        <v>0.1247585905771153</v>
       </c>
       <c r="J12">
-        <v>0.1779646688335486</v>
+        <v>0.1247585905771153</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.40564566666667</v>
+        <v>0.903185</v>
       </c>
       <c r="N12">
-        <v>55.216937</v>
+        <v>2.709555</v>
       </c>
       <c r="O12">
-        <v>0.9503421275147966</v>
+        <v>0.03154869388788047</v>
       </c>
       <c r="P12">
-        <v>0.9503421275147965</v>
+        <v>0.03154869388788046</v>
       </c>
       <c r="Q12">
-        <v>17.65533338584978</v>
+        <v>0.676392536945</v>
       </c>
       <c r="R12">
-        <v>158.898000472648</v>
+        <v>6.087532832505</v>
       </c>
       <c r="S12">
-        <v>0.1691273220017407</v>
+        <v>0.00393597058400082</v>
       </c>
       <c r="T12">
-        <v>0.1691273220017407</v>
+        <v>0.003935970584000819</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,13 +1207,13 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1219,232 +1222,232 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.9592346666666666</v>
+        <v>0.748897</v>
       </c>
       <c r="H13">
-        <v>2.877704</v>
+        <v>2.246691</v>
       </c>
       <c r="I13">
-        <v>0.1779646688335486</v>
+        <v>0.1247585905771153</v>
       </c>
       <c r="J13">
-        <v>0.1779646688335486</v>
+        <v>0.1247585905771153</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.01411566666666667</v>
+        <v>0.110372</v>
       </c>
       <c r="N13">
-        <v>0.042347</v>
+        <v>0.331116</v>
       </c>
       <c r="O13">
-        <v>0.0007288368435552499</v>
+        <v>0.003855347953955327</v>
       </c>
       <c r="P13">
-        <v>0.0007288368435552499</v>
+        <v>0.003855347953955326</v>
       </c>
       <c r="Q13">
-        <v>0.01354023680977778</v>
+        <v>0.08265725968399999</v>
       </c>
       <c r="R13">
-        <v>0.121862131288</v>
+        <v>0.743915337156</v>
       </c>
       <c r="S13">
-        <v>0.0001297072074969989</v>
+        <v>0.000480987776919832</v>
       </c>
       <c r="T13">
-        <v>0.0001297072074969989</v>
+        <v>0.0004809877769198318</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.748897</v>
+      </c>
+      <c r="H14">
+        <v>2.246691</v>
+      </c>
+      <c r="I14">
+        <v>0.1247585905771153</v>
+      </c>
+      <c r="J14">
+        <v>0.1247585905771153</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G14">
-        <v>0.070789</v>
-      </c>
-      <c r="H14">
-        <v>0.212367</v>
-      </c>
-      <c r="I14">
-        <v>0.01313332532677934</v>
-      </c>
-      <c r="J14">
-        <v>0.01313332532677934</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
       <c r="M14">
-        <v>0.8372556666666666</v>
+        <v>0.03076233333333333</v>
       </c>
       <c r="N14">
-        <v>2.511767</v>
+        <v>0.09228699999999999</v>
       </c>
       <c r="O14">
-        <v>0.04323017762831462</v>
+        <v>0.001074543352259254</v>
       </c>
       <c r="P14">
-        <v>0.04323017762831462</v>
+        <v>0.001074543352259254</v>
       </c>
       <c r="Q14">
-        <v>0.05926849138766667</v>
+        <v>0.02303781914633334</v>
       </c>
       <c r="R14">
-        <v>0.533416422489</v>
+        <v>0.207340372317</v>
       </c>
       <c r="S14">
-        <v>0.0005677559867271139</v>
+        <v>0.0001340585141418734</v>
       </c>
       <c r="T14">
-        <v>0.0005677559867271139</v>
+        <v>0.0001340585141418733</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.070789</v>
+        <v>0.748897</v>
       </c>
       <c r="H15">
-        <v>0.212367</v>
+        <v>2.246691</v>
       </c>
       <c r="I15">
-        <v>0.01313332532677934</v>
+        <v>0.1247585905771153</v>
       </c>
       <c r="J15">
-        <v>0.01313332532677934</v>
+        <v>0.1247585905771153</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.110372</v>
+        <v>27.52907633333334</v>
       </c>
       <c r="N15">
-        <v>0.331116</v>
+        <v>82.58722900000001</v>
       </c>
       <c r="O15">
-        <v>0.00569885801333365</v>
+        <v>0.9616041035407232</v>
       </c>
       <c r="P15">
-        <v>0.00569885801333365</v>
+        <v>0.9616041035407231</v>
       </c>
       <c r="Q15">
-        <v>0.007813123508</v>
+        <v>20.61644267880434</v>
       </c>
       <c r="R15">
-        <v>0.07031811157199999</v>
+        <v>185.547984109239</v>
       </c>
       <c r="S15">
-        <v>7.484495628023422E-05</v>
+        <v>0.1199683726509111</v>
       </c>
       <c r="T15">
-        <v>7.484495628023422E-05</v>
+        <v>0.1199683726509111</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.070789</v>
+        <v>0.748897</v>
       </c>
       <c r="H16">
-        <v>0.212367</v>
+        <v>2.246691</v>
       </c>
       <c r="I16">
-        <v>0.01313332532677934</v>
+        <v>0.1247585905771153</v>
       </c>
       <c r="J16">
-        <v>0.01313332532677934</v>
+        <v>0.1247585905771153</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>18.40564566666667</v>
+        <v>0.05488933333333334</v>
       </c>
       <c r="N16">
-        <v>55.216937</v>
+        <v>0.164668</v>
       </c>
       <c r="O16">
-        <v>0.9503421275147966</v>
+        <v>0.001917311265181737</v>
       </c>
       <c r="P16">
-        <v>0.9503421275147965</v>
+        <v>0.001917311265181736</v>
       </c>
       <c r="Q16">
-        <v>1.302917251097667</v>
+        <v>0.04110645706533334</v>
       </c>
       <c r="R16">
-        <v>11.726255259879</v>
+        <v>0.3699581135880001</v>
       </c>
       <c r="S16">
-        <v>0.01248115233239544</v>
+        <v>0.0002392010511416993</v>
       </c>
       <c r="T16">
-        <v>0.01248115233239544</v>
+        <v>0.0002392010511416992</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1452,61 +1455,619 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.4994553333333333</v>
+      </c>
+      <c r="H17">
+        <v>1.498366</v>
+      </c>
+      <c r="I17">
+        <v>0.08320415683717519</v>
+      </c>
+      <c r="J17">
+        <v>0.08320415683717518</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.903185</v>
+      </c>
+      <c r="N17">
+        <v>2.709555</v>
+      </c>
+      <c r="O17">
+        <v>0.03154869388788047</v>
+      </c>
+      <c r="P17">
+        <v>0.03154869388788046</v>
+      </c>
+      <c r="Q17">
+        <v>0.4511005652366666</v>
+      </c>
+      <c r="R17">
+        <v>4.05990508713</v>
+      </c>
+      <c r="S17">
+        <v>0.002624982474255237</v>
+      </c>
+      <c r="T17">
+        <v>0.002624982474255236</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.4994553333333333</v>
+      </c>
+      <c r="H18">
+        <v>1.498366</v>
+      </c>
+      <c r="I18">
+        <v>0.08320415683717519</v>
+      </c>
+      <c r="J18">
+        <v>0.08320415683717518</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.110372</v>
+      </c>
+      <c r="N18">
+        <v>0.331116</v>
+      </c>
+      <c r="O18">
+        <v>0.003855347953955327</v>
+      </c>
+      <c r="P18">
+        <v>0.003855347953955326</v>
+      </c>
+      <c r="Q18">
+        <v>0.05512588405066666</v>
+      </c>
+      <c r="R18">
+        <v>0.4961329564559999</v>
+      </c>
+      <c r="S18">
+        <v>0.0003207809758227815</v>
+      </c>
+      <c r="T18">
+        <v>0.0003207809758227814</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.4994553333333333</v>
+      </c>
+      <c r="H19">
+        <v>1.498366</v>
+      </c>
+      <c r="I19">
+        <v>0.08320415683717519</v>
+      </c>
+      <c r="J19">
+        <v>0.08320415683717518</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.03076233333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.09228699999999999</v>
+      </c>
+      <c r="O19">
+        <v>0.001074543352259254</v>
+      </c>
+      <c r="P19">
+        <v>0.001074543352259254</v>
+      </c>
+      <c r="Q19">
+        <v>0.01536441144911111</v>
+      </c>
+      <c r="R19">
+        <v>0.138279703042</v>
+      </c>
+      <c r="S19">
+        <v>8.940647360972299E-05</v>
+      </c>
+      <c r="T19">
+        <v>8.940647360972298E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.4994553333333333</v>
+      </c>
+      <c r="H20">
+        <v>1.498366</v>
+      </c>
+      <c r="I20">
+        <v>0.08320415683717519</v>
+      </c>
+      <c r="J20">
+        <v>0.08320415683717518</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>27.52907633333334</v>
+      </c>
+      <c r="N20">
+        <v>82.58722900000001</v>
+      </c>
+      <c r="O20">
+        <v>0.9616041035407232</v>
+      </c>
+      <c r="P20">
+        <v>0.9616041035407231</v>
+      </c>
+      <c r="Q20">
+        <v>13.74954399642378</v>
+      </c>
+      <c r="R20">
+        <v>123.745895967814</v>
+      </c>
+      <c r="S20">
+        <v>0.08000945864627358</v>
+      </c>
+      <c r="T20">
+        <v>0.08000945864627357</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.4994553333333333</v>
+      </c>
+      <c r="H21">
+        <v>1.498366</v>
+      </c>
+      <c r="I21">
+        <v>0.08320415683717519</v>
+      </c>
+      <c r="J21">
+        <v>0.08320415683717518</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.05488933333333334</v>
+      </c>
+      <c r="N21">
+        <v>0.164668</v>
+      </c>
+      <c r="O21">
+        <v>0.001917311265181737</v>
+      </c>
+      <c r="P21">
+        <v>0.001917311265181736</v>
+      </c>
+      <c r="Q21">
+        <v>0.02741477027644445</v>
+      </c>
+      <c r="R21">
+        <v>0.246732932488</v>
+      </c>
+      <c r="S21">
+        <v>0.000159528267213864</v>
+      </c>
+      <c r="T21">
+        <v>0.000159528267213864</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.1128296666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.338489</v>
+      </c>
+      <c r="I22">
+        <v>0.0187962699658552</v>
+      </c>
+      <c r="J22">
+        <v>0.0187962699658552</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.903185</v>
+      </c>
+      <c r="N22">
+        <v>2.709555</v>
+      </c>
+      <c r="O22">
+        <v>0.03154869388788047</v>
+      </c>
+      <c r="P22">
+        <v>0.03154869388788046</v>
+      </c>
+      <c r="Q22">
+        <v>0.1019060624883333</v>
+      </c>
+      <c r="R22">
+        <v>0.9171545623949999</v>
+      </c>
+      <c r="S22">
+        <v>0.0005929977673867272</v>
+      </c>
+      <c r="T22">
+        <v>0.0005929977673867269</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.1128296666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.338489</v>
+      </c>
+      <c r="I23">
+        <v>0.0187962699658552</v>
+      </c>
+      <c r="J23">
+        <v>0.0187962699658552</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.110372</v>
+      </c>
+      <c r="N23">
+        <v>0.331116</v>
+      </c>
+      <c r="O23">
+        <v>0.003855347953955327</v>
+      </c>
+      <c r="P23">
+        <v>0.003855347953955326</v>
+      </c>
+      <c r="Q23">
+        <v>0.01245323596933333</v>
+      </c>
+      <c r="R23">
+        <v>0.112079123724</v>
+      </c>
+      <c r="S23">
+        <v>7.246616095485182E-05</v>
+      </c>
+      <c r="T23">
+        <v>7.246616095485179E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.1128296666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.338489</v>
+      </c>
+      <c r="I24">
+        <v>0.0187962699658552</v>
+      </c>
+      <c r="J24">
+        <v>0.0187962699658552</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.03076233333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.09228699999999999</v>
+      </c>
+      <c r="O24">
+        <v>0.001074543352259254</v>
+      </c>
+      <c r="P24">
+        <v>0.001074543352259254</v>
+      </c>
+      <c r="Q24">
+        <v>0.003470903815888889</v>
+      </c>
+      <c r="R24">
+        <v>0.031238134343</v>
+      </c>
+      <c r="S24">
+        <v>2.019740693907999E-05</v>
+      </c>
+      <c r="T24">
+        <v>2.019740693907999E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G17">
-        <v>0.070789</v>
-      </c>
-      <c r="H17">
-        <v>0.212367</v>
-      </c>
-      <c r="I17">
-        <v>0.01313332532677934</v>
-      </c>
-      <c r="J17">
-        <v>0.01313332532677934</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
+      <c r="G25">
+        <v>0.1128296666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.338489</v>
+      </c>
+      <c r="I25">
+        <v>0.0187962699658552</v>
+      </c>
+      <c r="J25">
+        <v>0.0187962699658552</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>27.52907633333334</v>
+      </c>
+      <c r="N25">
+        <v>82.58722900000001</v>
+      </c>
+      <c r="O25">
+        <v>0.9616041035407232</v>
+      </c>
+      <c r="P25">
+        <v>0.9616041035407231</v>
+      </c>
+      <c r="Q25">
+        <v>3.106096506331222</v>
+      </c>
+      <c r="R25">
+        <v>27.954868556981</v>
+      </c>
+      <c r="S25">
+        <v>0.01807457033042561</v>
+      </c>
+      <c r="T25">
+        <v>0.01807457033042561</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M17">
-        <v>0.01411566666666667</v>
-      </c>
-      <c r="N17">
-        <v>0.042347</v>
-      </c>
-      <c r="O17">
-        <v>0.0007288368435552499</v>
-      </c>
-      <c r="P17">
-        <v>0.0007288368435552499</v>
-      </c>
-      <c r="Q17">
-        <v>0.0009992339276666668</v>
-      </c>
-      <c r="R17">
-        <v>0.008993105349</v>
-      </c>
-      <c r="S17">
-        <v>9.572051376554074E-06</v>
-      </c>
-      <c r="T17">
-        <v>9.572051376554074E-06</v>
+      <c r="G26">
+        <v>0.1128296666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.338489</v>
+      </c>
+      <c r="I26">
+        <v>0.0187962699658552</v>
+      </c>
+      <c r="J26">
+        <v>0.0187962699658552</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.05488933333333334</v>
+      </c>
+      <c r="N26">
+        <v>0.164668</v>
+      </c>
+      <c r="O26">
+        <v>0.001917311265181737</v>
+      </c>
+      <c r="P26">
+        <v>0.001917311265181736</v>
+      </c>
+      <c r="Q26">
+        <v>0.006193145183555556</v>
+      </c>
+      <c r="R26">
+        <v>0.055738306652</v>
+      </c>
+      <c r="S26">
+        <v>3.603830014893132E-05</v>
+      </c>
+      <c r="T26">
+        <v>3.603830014893131E-05</v>
       </c>
     </row>
   </sheetData>
